--- a/test.xlsx
+++ b/test.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="B08K42LKDG" sheetId="1" r:id="rId1"/>
+    <sheet name="B08K42NJDY" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -16,34 +16,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>workout set</t>
-  </si>
-  <si>
-    <t>yoga set</t>
-  </si>
-  <si>
-    <t>yoga top</t>
-  </si>
-  <si>
-    <t>t shirt</t>
-  </si>
-  <si>
-    <t>legging set</t>
-  </si>
-  <si>
-    <t>cropped shirts</t>
-  </si>
-  <si>
-    <t>workout top</t>
-  </si>
-  <si>
-    <t>cropped t shirt</t>
-  </si>
-  <si>
-    <t>workout outfit</t>
-  </si>
-  <si>
-    <t>cropped top</t>
+    <t>bras for women</t>
+  </si>
+  <si>
+    <t>jeans for women high waisted stretch</t>
+  </si>
+  <si>
+    <t>fishnet leggings</t>
+  </si>
+  <si>
+    <t>workout leggings for women</t>
+  </si>
+  <si>
+    <t>high waisted jeggings for women</t>
+  </si>
+  <si>
+    <t>sport bra</t>
+  </si>
+  <si>
+    <t>beginner sports bra for girls</t>
+  </si>
+  <si>
+    <t>purple bra</t>
+  </si>
+  <si>
+    <t>seamless bra</t>
+  </si>
+  <si>
+    <t>seamless workout set</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="B08K42NJDY" sheetId="1" r:id="rId1"/>
+    <sheet name="B08K47P9FC" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -16,34 +16,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>bras for women</t>
-  </si>
-  <si>
-    <t>jeans for women high waisted stretch</t>
-  </si>
-  <si>
-    <t>fishnet leggings</t>
-  </si>
-  <si>
-    <t>workout leggings for women</t>
-  </si>
-  <si>
-    <t>high waisted jeggings for women</t>
+    <t>zero restriction vest</t>
+  </si>
+  <si>
+    <t>jeggings for women high waist</t>
   </si>
   <si>
     <t>sport bra</t>
   </si>
   <si>
-    <t>beginner sports bra for girls</t>
-  </si>
-  <si>
     <t>purple bra</t>
   </si>
   <si>
     <t>seamless bra</t>
   </si>
   <si>
+    <t>purple leggings</t>
+  </si>
+  <si>
+    <t>legging sets for women outfits</t>
+  </si>
+  <si>
     <t>seamless workout set</t>
+  </si>
+  <si>
+    <t>black out silhouettes then and now</t>
+  </si>
+  <si>
+    <t>belly dance bra</t>
   </si>
 </sst>
 </file>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>zero restriction vest</t>
   </si>
@@ -23,27 +23,6 @@
   </si>
   <si>
     <t>sport bra</t>
-  </si>
-  <si>
-    <t>purple bra</t>
-  </si>
-  <si>
-    <t>seamless bra</t>
-  </si>
-  <si>
-    <t>purple leggings</t>
-  </si>
-  <si>
-    <t>legging sets for women outfits</t>
-  </si>
-  <si>
-    <t>seamless workout set</t>
-  </si>
-  <si>
-    <t>black out silhouettes then and now</t>
-  </si>
-  <si>
-    <t>belly dance bra</t>
   </si>
 </sst>
 </file>
@@ -385,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A10"/>
+      <selection activeCell="A4" sqref="A4:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,41 +387,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -7,22 +7,43 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="B08K47P9FC" sheetId="1" r:id="rId1"/>
+    <sheet name="B08K42LKDG" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>zero restriction vest</t>
-  </si>
-  <si>
-    <t>jeggings for women high waist</t>
-  </si>
-  <si>
-    <t>sport bra</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>workout set</t>
+  </si>
+  <si>
+    <t>yoga set</t>
+  </si>
+  <si>
+    <t>yoga top</t>
+  </si>
+  <si>
+    <t>t shirt</t>
+  </si>
+  <si>
+    <t>legging set</t>
+  </si>
+  <si>
+    <t>cropped shirts</t>
+  </si>
+  <si>
+    <t>workout top</t>
+  </si>
+  <si>
+    <t>cropped t shirt</t>
+  </si>
+  <si>
+    <t>workout outfit</t>
+  </si>
+  <si>
+    <t>cropped top</t>
   </si>
 </sst>
 </file>
@@ -364,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A10"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,6 +408,41 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\git\kw-rank\keyword\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE4B28F-E0EE-4FCC-836D-9628D1E70F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BCB611-9894-4BB8-A06F-9BA61E461D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B08K47P9FC" sheetId="1" r:id="rId1"/>
+    <sheet name="B08K42K3DM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -688,7 +688,7 @@
   <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+      <selection activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\git\kw-rank\keyword\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\爬虫\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56E3638-DBFA-48A2-864A-BC698BB265DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4676FB-B974-44FB-BA8B-31E04EA56EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B08K47P9FC" sheetId="1" r:id="rId1"/>
+    <sheet name="B08K44C9Y9" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,49 +25,154 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>zero restriction vest</t>
-  </si>
-  <si>
-    <t>jeggings for women high waist</t>
-  </si>
-  <si>
-    <t>sport bra</t>
-  </si>
-  <si>
-    <t>purple bra</t>
-  </si>
-  <si>
-    <t>seamless bra</t>
-  </si>
-  <si>
-    <t>purple leggings</t>
-  </si>
-  <si>
-    <t>legging sets for women outfits</t>
-  </si>
-  <si>
-    <t>seamless workout set</t>
-  </si>
-  <si>
-    <t>black out silhouettes then and now</t>
-  </si>
-  <si>
-    <t>belly dance bra</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+  <si>
+    <t>yoga workout top</t>
+  </si>
+  <si>
+    <t>t shirt set</t>
+  </si>
+  <si>
+    <t>sport apparel</t>
+  </si>
+  <si>
+    <t>cropped t</t>
+  </si>
+  <si>
+    <t>workout 2 piece</t>
+  </si>
+  <si>
+    <t>2 piece yoga set</t>
+  </si>
+  <si>
+    <t>yoga legging set</t>
+  </si>
+  <si>
+    <t>top t shirt</t>
+  </si>
+  <si>
+    <t>2 piece yoga outfit</t>
+  </si>
+  <si>
+    <t>sport workout</t>
+  </si>
+  <si>
+    <t>apparel shirt</t>
+  </si>
+  <si>
+    <t>cropped workout shirt</t>
+  </si>
+  <si>
+    <t>yoga 2</t>
+  </si>
+  <si>
+    <t>workout top set</t>
+  </si>
+  <si>
+    <t>t set</t>
+  </si>
+  <si>
+    <t>t piece</t>
+  </si>
+  <si>
+    <t>t sport</t>
+  </si>
+  <si>
+    <t>2 piece set outfit</t>
+  </si>
+  <si>
+    <t>2 piece legging set</t>
+  </si>
+  <si>
+    <t>2 piece workout outfit</t>
+  </si>
+  <si>
+    <t>2 t shirt</t>
+  </si>
+  <si>
+    <t>ready set</t>
+  </si>
+  <si>
+    <t>apparel t shirt</t>
+  </si>
+  <si>
+    <t>legging top set</t>
+  </si>
+  <si>
+    <t>workout legging set</t>
+  </si>
+  <si>
+    <t>cropped workout</t>
+  </si>
+  <si>
+    <t>yoga legging cropped</t>
+  </si>
+  <si>
+    <t>yoga set 2</t>
+  </si>
+  <si>
+    <t>ready 2</t>
+  </si>
+  <si>
+    <t>yoga 2 piece</t>
+  </si>
+  <si>
+    <t>t shirt legging</t>
+  </si>
+  <si>
+    <t>apparel t</t>
+  </si>
+  <si>
+    <t>sport 2</t>
+  </si>
+  <si>
+    <t>workout t</t>
+  </si>
+  <si>
+    <t>sport yoga legging</t>
+  </si>
+  <si>
+    <t>yoga outfit 2 piece set</t>
+  </si>
+  <si>
+    <t>yoga legging top set</t>
+  </si>
+  <si>
+    <t>2 top</t>
+  </si>
+  <si>
+    <t>legging yoga workout</t>
+  </si>
+  <si>
+    <t>workout legging top set</t>
+  </si>
+  <si>
+    <t>yoga t</t>
+  </si>
+  <si>
+    <t>yoga top legging</t>
+  </si>
+  <si>
+    <t>t legging</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -94,16 +199,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{28F17666-88F0-4C90-86E2-6F6996A489A0}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -379,67 +505,399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A10"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A44:A96">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A43">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\爬虫\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4676FB-B974-44FB-BA8B-31E04EA56EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0F8029-8199-4E5D-B078-90F92D5C9611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,135 +25,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>yoga workout top</t>
-  </si>
-  <si>
-    <t>t shirt set</t>
-  </si>
-  <si>
-    <t>sport apparel</t>
-  </si>
-  <si>
-    <t>cropped t</t>
-  </si>
-  <si>
-    <t>workout 2 piece</t>
-  </si>
-  <si>
-    <t>2 piece yoga set</t>
-  </si>
-  <si>
-    <t>yoga legging set</t>
-  </si>
-  <si>
-    <t>top t shirt</t>
-  </si>
-  <si>
-    <t>2 piece yoga outfit</t>
-  </si>
-  <si>
-    <t>sport workout</t>
-  </si>
-  <si>
-    <t>apparel shirt</t>
-  </si>
-  <si>
-    <t>cropped workout shirt</t>
-  </si>
-  <si>
-    <t>yoga 2</t>
-  </si>
-  <si>
-    <t>workout top set</t>
-  </si>
-  <si>
-    <t>t set</t>
-  </si>
-  <si>
-    <t>t piece</t>
-  </si>
-  <si>
-    <t>t sport</t>
-  </si>
-  <si>
-    <t>2 piece set outfit</t>
-  </si>
-  <si>
-    <t>2 piece legging set</t>
-  </si>
-  <si>
-    <t>2 piece workout outfit</t>
-  </si>
-  <si>
-    <t>2 t shirt</t>
-  </si>
-  <si>
-    <t>ready set</t>
-  </si>
-  <si>
-    <t>apparel t shirt</t>
-  </si>
-  <si>
-    <t>legging top set</t>
-  </si>
-  <si>
-    <t>workout legging set</t>
-  </si>
-  <si>
-    <t>cropped workout</t>
-  </si>
-  <si>
-    <t>yoga legging cropped</t>
-  </si>
-  <si>
-    <t>yoga set 2</t>
-  </si>
-  <si>
-    <t>ready 2</t>
-  </si>
-  <si>
-    <t>yoga 2 piece</t>
-  </si>
-  <si>
-    <t>t shirt legging</t>
-  </si>
-  <si>
-    <t>apparel t</t>
-  </si>
-  <si>
-    <t>sport 2</t>
-  </si>
-  <si>
-    <t>workout t</t>
-  </si>
-  <si>
-    <t>sport yoga legging</t>
-  </si>
-  <si>
-    <t>yoga outfit 2 piece set</t>
-  </si>
-  <si>
-    <t>yoga legging top set</t>
-  </si>
-  <si>
-    <t>2 top</t>
-  </si>
-  <si>
-    <t>legging yoga workout</t>
-  </si>
-  <si>
-    <t>workout legging top set</t>
-  </si>
-  <si>
-    <t>yoga t</t>
-  </si>
-  <si>
-    <t>yoga top legging</t>
-  </si>
-  <si>
-    <t>t legging</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>sporty outfits</t>
+  </si>
+  <si>
+    <t>cropped two piece</t>
+  </si>
+  <si>
+    <t>3 piece lounge sets for women</t>
+  </si>
+  <si>
+    <t>cropped workout top</t>
+  </si>
+  <si>
+    <t>yoga outfit</t>
+  </si>
+  <si>
+    <t>cropped shirts</t>
+  </si>
+  <si>
+    <t>the struggle is real sweatshirt womens</t>
+  </si>
+  <si>
+    <t>seamless tops for women workout</t>
+  </si>
+  <si>
+    <t>boxing outfit</t>
+  </si>
+  <si>
+    <t>cropped outfits</t>
+  </si>
+  <si>
+    <t>spandex sweatsuit women</t>
+  </si>
+  <si>
+    <t>workout sets for women 2 piece high waist</t>
+  </si>
+  <si>
+    <t>seamless workout set</t>
+  </si>
+  <si>
+    <t>womens shirts for leggings</t>
+  </si>
+  <si>
+    <t>work out outfit</t>
+  </si>
+  <si>
+    <t>yoga pants enhance butt</t>
+  </si>
+  <si>
+    <t>belly dance top</t>
+  </si>
+  <si>
+    <t>yoga outfits for women 2 piece set</t>
+  </si>
+  <si>
+    <t>yoga set</t>
+  </si>
+  <si>
+    <t>womens workout shirts</t>
+  </si>
+  <si>
+    <t>t shirt</t>
+  </si>
+  <si>
+    <t>yoga legging</t>
+  </si>
+  <si>
+    <t>yoga workout</t>
+  </si>
+  <si>
+    <t>yoga shirt</t>
+  </si>
+  <si>
+    <t>cropped top</t>
+  </si>
+  <si>
+    <t>cropped tops for women</t>
+  </si>
+  <si>
+    <t>cropped t shirt</t>
+  </si>
+  <si>
+    <t>workout tops for women</t>
+  </si>
+  <si>
+    <t>workout apparel</t>
+  </si>
+  <si>
+    <t>workout outfits</t>
+  </si>
+  <si>
+    <t>workout outfit set</t>
+  </si>
+  <si>
+    <t>workout set</t>
+  </si>
+  <si>
+    <t>workout legging</t>
+  </si>
+  <si>
+    <t>legging set</t>
+  </si>
+  <si>
+    <t>workout outfit</t>
+  </si>
+  <si>
+    <t>workout shirt</t>
+  </si>
+  <si>
+    <t>sport t shirt</t>
+  </si>
+  <si>
+    <t>sport shirt</t>
+  </si>
+  <si>
+    <t>sport shirts for women</t>
+  </si>
+  <si>
+    <t>2 piece</t>
+  </si>
+  <si>
+    <t>womens yoga tops</t>
+  </si>
+  <si>
+    <t>womens workout set</t>
+  </si>
+  <si>
+    <t>legging sets for women outfits</t>
+  </si>
+  <si>
+    <t>2 piece sets for women</t>
+  </si>
+  <si>
+    <t>outfit set</t>
+  </si>
+  <si>
+    <t>sports for women</t>
+  </si>
+  <si>
+    <t>sport legging</t>
+  </si>
+  <si>
+    <t>leggings set</t>
+  </si>
+  <si>
+    <t>womans workout tops</t>
+  </si>
+  <si>
+    <t>yoga workout set</t>
+  </si>
+  <si>
+    <t>yoga outfit set</t>
+  </si>
+  <si>
+    <t>workout shirts women</t>
+  </si>
+  <si>
+    <t>sports leggings for women</t>
+  </si>
+  <si>
+    <t>sport set</t>
+  </si>
+  <si>
+    <t>yoga t shirt</t>
+  </si>
+  <si>
+    <t>cropped shirt</t>
+  </si>
+  <si>
+    <t>cropped shirts for women</t>
+  </si>
+  <si>
+    <t>cropped yoga top</t>
+  </si>
+  <si>
+    <t>set 2</t>
+  </si>
+  <si>
+    <t>yoga apparel</t>
+  </si>
+  <si>
+    <t>top set</t>
+  </si>
+  <si>
+    <t>workout top</t>
+  </si>
+  <si>
+    <t>2 piece set</t>
+  </si>
+  <si>
+    <t>2 piece outfit</t>
+  </si>
+  <si>
+    <t>yoga top</t>
+  </si>
+  <si>
+    <t>top for women sport</t>
+  </si>
+  <si>
+    <t>sport top</t>
+  </si>
+  <si>
+    <t>sport outfit</t>
+  </si>
+  <si>
+    <t>shirt set</t>
+  </si>
+  <si>
+    <t>shirt outfit</t>
+  </si>
+  <si>
+    <t>yoga sport</t>
+  </si>
+  <si>
+    <t>nova hoodie</t>
+  </si>
+  <si>
+    <t>workout t shirt</t>
+  </si>
+  <si>
+    <t>t top</t>
+  </si>
+  <si>
+    <t>top legging</t>
+  </si>
+  <si>
+    <t>top shirt</t>
+  </si>
+  <si>
+    <t>shirts workout women</t>
+  </si>
+  <si>
+    <t>2 piece workout sets for women</t>
+  </si>
+  <si>
+    <t>piece set</t>
+  </si>
+  <si>
+    <t>womens sports tops</t>
+  </si>
+  <si>
+    <t>2 piece workout set</t>
+  </si>
+  <si>
+    <t>womens cropped leggings</t>
+  </si>
+  <si>
+    <t>legging and top set</t>
+  </si>
+  <si>
+    <t>women workout sets</t>
+  </si>
+  <si>
+    <t>womens workout top</t>
+  </si>
+  <si>
+    <t>legging outfit</t>
+  </si>
+  <si>
+    <t>top leggings set</t>
+  </si>
+  <si>
+    <t>long sleeve rumper for woman</t>
+  </si>
+  <si>
+    <t>womens cropped workout tops</t>
+  </si>
+  <si>
+    <t>women yoga sets</t>
+  </si>
+  <si>
+    <t>workout outfits for women 2 piece set</t>
+  </si>
+  <si>
+    <t>cropped legging</t>
+  </si>
+  <si>
+    <t>womens sports top</t>
+  </si>
+  <si>
+    <t>cropped legging for women</t>
+  </si>
+  <si>
+    <t>womens workout sets 2 piece</t>
+  </si>
+  <si>
+    <t>leggings set for women 2 piece</t>
+  </si>
+  <si>
+    <t>workout tops for women set</t>
+  </si>
+  <si>
+    <t>legging outfits for women 2 piece set</t>
+  </si>
+  <si>
+    <t>shirt legging</t>
+  </si>
+  <si>
+    <t>cropped workout legging</t>
   </si>
 </sst>
 </file>
@@ -203,25 +374,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{28F17666-88F0-4C90-86E2-6F6996A489A0}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -505,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A96"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+      <selection activeCell="E31" sqref="E30:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -516,387 +677,510 @@
     <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A44:A96">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A43">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  <conditionalFormatting sqref="A1:A100">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\爬虫\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\git\kw-rank\keyword\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0F8029-8199-4E5D-B078-90F92D5C9611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E502225-C8B8-414A-964D-C1D5A265C3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B08K44C9Y9" sheetId="1" r:id="rId1"/>
+    <sheet name="B08K4353V1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,304 +27,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>sporty outfits</t>
-  </si>
-  <si>
-    <t>cropped two piece</t>
-  </si>
-  <si>
-    <t>3 piece lounge sets for women</t>
-  </si>
-  <si>
-    <t>cropped workout top</t>
+    <t>jeggings set for women</t>
+  </si>
+  <si>
+    <t>basketball sweatsuit</t>
+  </si>
+  <si>
+    <t>work out outfit</t>
+  </si>
+  <si>
+    <t>green muscle leggings</t>
+  </si>
+  <si>
+    <t>sexy stretch denim high waist</t>
+  </si>
+  <si>
+    <t>green belly dance top</t>
+  </si>
+  <si>
+    <t>legging set</t>
+  </si>
+  <si>
+    <t>basketball tights for girls</t>
+  </si>
+  <si>
+    <t>yoga set</t>
+  </si>
+  <si>
+    <t>highwaist leggings</t>
+  </si>
+  <si>
+    <t>yoga ball green</t>
+  </si>
+  <si>
+    <t>girls slim jeans size 10</t>
+  </si>
+  <si>
+    <t>dark green leggings</t>
+  </si>
+  <si>
+    <t>dance booties for women</t>
+  </si>
+  <si>
+    <t>yoga work out set</t>
+  </si>
+  <si>
+    <t>workout outfits</t>
+  </si>
+  <si>
+    <t>dance outfits for women</t>
+  </si>
+  <si>
+    <t>butt lifting jeggings for women</t>
+  </si>
+  <si>
+    <t>90 styles clothing for women</t>
+  </si>
+  <si>
+    <t>purple outfits for women</t>
+  </si>
+  <si>
+    <t>belly dance vest</t>
+  </si>
+  <si>
+    <t>belly dance bra</t>
+  </si>
+  <si>
+    <t>sports bra set</t>
+  </si>
+  <si>
+    <t>sports bra and leggings set for women</t>
+  </si>
+  <si>
+    <t>metallic green leggings</t>
+  </si>
+  <si>
+    <t>zero restriction vest</t>
+  </si>
+  <si>
+    <t>3 pc outfit for women</t>
+  </si>
+  <si>
+    <t>green workout leggings for women</t>
+  </si>
+  <si>
+    <t>black out silhouettes then and now</t>
+  </si>
+  <si>
+    <t>black seamless leggings for women</t>
+  </si>
+  <si>
+    <t>yoga pants cropped</t>
+  </si>
+  <si>
+    <t>yoga jeggings</t>
+  </si>
+  <si>
+    <t>dance equipment</t>
+  </si>
+  <si>
+    <t>skinny wraps</t>
+  </si>
+  <si>
+    <t>fashionable workout clothes for women</t>
+  </si>
+  <si>
+    <t>workout gear for women</t>
+  </si>
+  <si>
+    <t>denim camisole</t>
+  </si>
+  <si>
+    <t>boxing equipment for girls</t>
+  </si>
+  <si>
+    <t>exercise sets for women</t>
+  </si>
+  <si>
+    <t>green jeggings women</t>
+  </si>
+  <si>
+    <t>green denim vest</t>
+  </si>
+  <si>
+    <t>purple leggings</t>
+  </si>
+  <si>
+    <t>metallic outfit</t>
+  </si>
+  <si>
+    <t>2 pc legging set for women</t>
+  </si>
+  <si>
+    <t>workout items for women</t>
   </si>
   <si>
     <t>yoga outfit</t>
   </si>
   <si>
-    <t>cropped shirts</t>
-  </si>
-  <si>
-    <t>the struggle is real sweatshirt womens</t>
-  </si>
-  <si>
-    <t>seamless tops for women workout</t>
-  </si>
-  <si>
-    <t>boxing outfit</t>
-  </si>
-  <si>
-    <t>cropped outfits</t>
+    <t>women workout sets</t>
+  </si>
+  <si>
+    <t>bra and tight set</t>
+  </si>
+  <si>
+    <t>denim outfits for women sexy</t>
+  </si>
+  <si>
+    <t>muscle stretch</t>
+  </si>
+  <si>
+    <t>high waist jean leggings</t>
+  </si>
+  <si>
+    <t>dance skins for women</t>
+  </si>
+  <si>
+    <t>womens workout sets</t>
+  </si>
+  <si>
+    <t>skinny workout pants</t>
+  </si>
+  <si>
+    <t>green metallic leggings</t>
+  </si>
+  <si>
+    <t>yoga outfit seamless 2</t>
+  </si>
+  <si>
+    <t>nineties clothing for women</t>
+  </si>
+  <si>
+    <t>legging sets for women outfits</t>
+  </si>
+  <si>
+    <t>exercise clothing for women</t>
+  </si>
+  <si>
+    <t>nylon leggings for women</t>
+  </si>
+  <si>
+    <t>highwaist leggings for women</t>
+  </si>
+  <si>
+    <t>girls exercise pants</t>
+  </si>
+  <si>
+    <t>outfits for women</t>
+  </si>
+  <si>
+    <t>basketball pants girls</t>
+  </si>
+  <si>
+    <t>exercise outfits for women</t>
+  </si>
+  <si>
+    <t>dance skins</t>
+  </si>
+  <si>
+    <t>jeggings for women high waist</t>
+  </si>
+  <si>
+    <t>metallic pants women</t>
+  </si>
+  <si>
+    <t>seamless workout set</t>
+  </si>
+  <si>
+    <t>skinnies outfit</t>
+  </si>
+  <si>
+    <t>girls sexys butt</t>
+  </si>
+  <si>
+    <t>belly dance pants for girls</t>
+  </si>
+  <si>
+    <t>yoga vests for women</t>
+  </si>
+  <si>
+    <t>90 nylon 10 spandex leggings</t>
+  </si>
+  <si>
+    <t>pilates wrap</t>
+  </si>
+  <si>
+    <t>work out set</t>
+  </si>
+  <si>
+    <t>high waist jeggings for women stretch</t>
+  </si>
+  <si>
+    <t>cute booty lounge leggings</t>
+  </si>
+  <si>
+    <t>high waist jeggings for women</t>
+  </si>
+  <si>
+    <t>high waist compression jeggings</t>
+  </si>
+  <si>
+    <t>high waisted dance leggings for women</t>
+  </si>
+  <si>
+    <t>waist pack for women</t>
+  </si>
+  <si>
+    <t>girls dance sports bra</t>
+  </si>
+  <si>
+    <t>exercise outfit for women</t>
   </si>
   <si>
     <t>spandex sweatsuit women</t>
   </si>
   <si>
-    <t>workout sets for women 2 piece high waist</t>
-  </si>
-  <si>
-    <t>seamless workout set</t>
-  </si>
-  <si>
-    <t>womens shirts for leggings</t>
-  </si>
-  <si>
-    <t>work out outfit</t>
+    <t>gym wrap</t>
+  </si>
+  <si>
+    <t>metallic leggings for women</t>
+  </si>
+  <si>
+    <t>wrap bra</t>
+  </si>
+  <si>
+    <t>metallic spandex fabric</t>
+  </si>
+  <si>
+    <t>butt set</t>
+  </si>
+  <si>
+    <t>womens purple sweatsuit</t>
+  </si>
+  <si>
+    <t>womens dance leggings</t>
+  </si>
+  <si>
+    <t>womens work outfits sets</t>
+  </si>
+  <si>
+    <t>dance tights for girls</t>
   </si>
   <si>
     <t>yoga pants enhance butt</t>
   </si>
   <si>
-    <t>belly dance top</t>
-  </si>
-  <si>
-    <t>yoga outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>yoga set</t>
-  </si>
-  <si>
-    <t>womens workout shirts</t>
-  </si>
-  <si>
-    <t>t shirt</t>
-  </si>
-  <si>
-    <t>yoga legging</t>
-  </si>
-  <si>
-    <t>yoga workout</t>
-  </si>
-  <si>
-    <t>yoga shirt</t>
-  </si>
-  <si>
-    <t>cropped top</t>
-  </si>
-  <si>
-    <t>cropped tops for women</t>
-  </si>
-  <si>
-    <t>cropped t shirt</t>
-  </si>
-  <si>
-    <t>workout tops for women</t>
-  </si>
-  <si>
-    <t>workout apparel</t>
-  </si>
-  <si>
-    <t>workout outfits</t>
-  </si>
-  <si>
-    <t>workout outfit set</t>
-  </si>
-  <si>
-    <t>workout set</t>
-  </si>
-  <si>
-    <t>workout legging</t>
-  </si>
-  <si>
-    <t>legging set</t>
-  </si>
-  <si>
-    <t>workout outfit</t>
-  </si>
-  <si>
-    <t>workout shirt</t>
-  </si>
-  <si>
-    <t>sport t shirt</t>
-  </si>
-  <si>
-    <t>sport shirt</t>
-  </si>
-  <si>
-    <t>sport shirts for women</t>
-  </si>
-  <si>
-    <t>2 piece</t>
-  </si>
-  <si>
-    <t>womens yoga tops</t>
-  </si>
-  <si>
-    <t>womens workout set</t>
-  </si>
-  <si>
-    <t>legging sets for women outfits</t>
-  </si>
-  <si>
-    <t>2 piece sets for women</t>
-  </si>
-  <si>
-    <t>outfit set</t>
-  </si>
-  <si>
-    <t>sports for women</t>
-  </si>
-  <si>
-    <t>sport legging</t>
-  </si>
-  <si>
-    <t>leggings set</t>
-  </si>
-  <si>
-    <t>womans workout tops</t>
-  </si>
-  <si>
-    <t>yoga workout set</t>
-  </si>
-  <si>
-    <t>yoga outfit set</t>
-  </si>
-  <si>
-    <t>workout shirts women</t>
-  </si>
-  <si>
-    <t>sports leggings for women</t>
-  </si>
-  <si>
-    <t>sport set</t>
-  </si>
-  <si>
-    <t>yoga t shirt</t>
-  </si>
-  <si>
-    <t>cropped shirt</t>
-  </si>
-  <si>
-    <t>cropped shirts for women</t>
-  </si>
-  <si>
-    <t>cropped yoga top</t>
-  </si>
-  <si>
-    <t>set 2</t>
-  </si>
-  <si>
-    <t>yoga apparel</t>
-  </si>
-  <si>
-    <t>top set</t>
-  </si>
-  <si>
-    <t>workout top</t>
-  </si>
-  <si>
-    <t>2 piece set</t>
-  </si>
-  <si>
-    <t>2 piece outfit</t>
-  </si>
-  <si>
-    <t>yoga top</t>
-  </si>
-  <si>
-    <t>top for women sport</t>
-  </si>
-  <si>
-    <t>sport top</t>
-  </si>
-  <si>
-    <t>sport outfit</t>
-  </si>
-  <si>
-    <t>shirt set</t>
-  </si>
-  <si>
-    <t>shirt outfit</t>
-  </si>
-  <si>
-    <t>yoga sport</t>
-  </si>
-  <si>
-    <t>nova hoodie</t>
-  </si>
-  <si>
-    <t>workout t shirt</t>
-  </si>
-  <si>
-    <t>t top</t>
-  </si>
-  <si>
-    <t>top legging</t>
-  </si>
-  <si>
-    <t>top shirt</t>
-  </si>
-  <si>
-    <t>shirts workout women</t>
-  </si>
-  <si>
-    <t>2 piece workout sets for women</t>
-  </si>
-  <si>
-    <t>piece set</t>
-  </si>
-  <si>
-    <t>womens sports tops</t>
-  </si>
-  <si>
-    <t>2 piece workout set</t>
-  </si>
-  <si>
-    <t>womens cropped leggings</t>
-  </si>
-  <si>
-    <t>legging and top set</t>
-  </si>
-  <si>
-    <t>women workout sets</t>
-  </si>
-  <si>
-    <t>womens workout top</t>
-  </si>
-  <si>
-    <t>legging outfit</t>
-  </si>
-  <si>
-    <t>top leggings set</t>
-  </si>
-  <si>
-    <t>long sleeve rumper for woman</t>
-  </si>
-  <si>
-    <t>womens cropped workout tops</t>
-  </si>
-  <si>
-    <t>women yoga sets</t>
-  </si>
-  <si>
-    <t>workout outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>cropped legging</t>
-  </si>
-  <si>
-    <t>womens sports top</t>
-  </si>
-  <si>
-    <t>cropped legging for women</t>
-  </si>
-  <si>
-    <t>womens workout sets 2 piece</t>
-  </si>
-  <si>
-    <t>leggings set for women 2 piece</t>
-  </si>
-  <si>
-    <t>workout tops for women set</t>
-  </si>
-  <si>
-    <t>legging outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>shirt legging</t>
-  </si>
-  <si>
-    <t>cropped workout legging</t>
+    <t>small girls sports bra</t>
+  </si>
+  <si>
+    <t>green jeggings</t>
+  </si>
+  <si>
+    <t>womens jeggings high waist</t>
+  </si>
+  <si>
+    <t>sports bras set</t>
+  </si>
+  <si>
+    <t>purple boxing wraps</t>
   </si>
 </sst>
 </file>
@@ -342,8 +342,10 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -361,7 +363,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -369,18 +371,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{28F17666-88F0-4C90-86E2-6F6996A489A0}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -668,511 +677,508 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E30:E31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\git\kw-rank\keyword\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C72BB5E-3AA2-48DD-A52C-3F85A96A0CAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BCB611-9894-4BB8-A06F-9BA61E461D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B08K4353V1" sheetId="1" r:id="rId1"/>
+    <sheet name="B08K42K3DM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,54 +25,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
-  <si>
-    <t>workout legging set</t>
-  </si>
-  <si>
-    <t>black yoga legging</t>
-  </si>
-  <si>
-    <t>purple workout set</t>
-  </si>
-  <si>
-    <t>black seamless</t>
-  </si>
-  <si>
-    <t>legging outfit</t>
-  </si>
-  <si>
-    <t>high waist black</t>
-  </si>
-  <si>
-    <t>high bra</t>
-  </si>
-  <si>
-    <t>green legging</t>
-  </si>
-  <si>
-    <t>yoga waist legging</t>
-  </si>
-  <si>
-    <t>high waist workout legging</t>
-  </si>
-  <si>
-    <t>purple 2</t>
-  </si>
-  <si>
-    <t>black yoga outfit</t>
-  </si>
-  <si>
-    <t>green workout set</t>
-  </si>
-  <si>
-    <t>black workout set</t>
-  </si>
-  <si>
-    <t>petite sweat pants sets</t>
-  </si>
-  <si>
-    <t>high n</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+  <si>
+    <t>sport bra</t>
+  </si>
+  <si>
+    <t>purple bra</t>
+  </si>
+  <si>
+    <t>seamless bra</t>
+  </si>
+  <si>
+    <t>seamless workout set</t>
+  </si>
+  <si>
+    <t>womens gym clothes</t>
+  </si>
+  <si>
+    <t>purple clothing for women</t>
+  </si>
+  <si>
+    <t>big and tall gym clothing</t>
+  </si>
+  <si>
+    <t>leggings set</t>
+  </si>
+  <si>
+    <t>high waisted jeggings for women</t>
+  </si>
+  <si>
+    <t>fishnet sports bra</t>
+  </si>
+  <si>
+    <t>tennis ball return trainer</t>
+  </si>
+  <si>
+    <t>studio sports bra</t>
+  </si>
+  <si>
+    <t>waisted trainers</t>
+  </si>
+  <si>
+    <t>womens joggers high waisted</t>
+  </si>
+  <si>
+    <t>high waisted fishnet tights</t>
+  </si>
+  <si>
+    <t>beginner sports bra for girls</t>
+  </si>
+  <si>
+    <t>90 nylon 10 spandex leggings</t>
+  </si>
+  <si>
+    <t>sexy high waisted jeans for women</t>
+  </si>
+  <si>
+    <t>tennis return trainer</t>
+  </si>
+  <si>
+    <t>yoga set</t>
+  </si>
+  <si>
+    <t>yoga legging</t>
+  </si>
+  <si>
+    <t>yoga workout</t>
+  </si>
+  <si>
+    <t>yoga bra</t>
+  </si>
+  <si>
+    <t>workout apparel</t>
+  </si>
+  <si>
+    <t>workout bra</t>
+  </si>
+  <si>
+    <t>workout set</t>
+  </si>
+  <si>
+    <t>workout legging</t>
+  </si>
+  <si>
+    <t>legging set</t>
+  </si>
+  <si>
+    <t>workout gym</t>
+  </si>
+  <si>
+    <t>sport bra set</t>
+  </si>
+  <si>
+    <t>workout clothe</t>
+  </si>
+  <si>
+    <t>bra set</t>
+  </si>
+  <si>
+    <t>sport legging</t>
+  </si>
+  <si>
+    <t>yoga workout set</t>
+  </si>
+  <si>
+    <t>sport set</t>
+  </si>
+  <si>
+    <t>gym bra</t>
+  </si>
+  <si>
+    <t>gym set</t>
+  </si>
+  <si>
+    <t>yoga apparel</t>
+  </si>
+  <si>
+    <t>purple legging</t>
+  </si>
+  <si>
+    <t>high waisted legging</t>
+  </si>
+  <si>
+    <t>high waisted</t>
+  </si>
+  <si>
+    <t>sport gym</t>
+  </si>
+  <si>
+    <t>yoga sport</t>
+  </si>
+  <si>
+    <t>clothe set</t>
+  </si>
+  <si>
+    <t>high waisted yoga</t>
+  </si>
+  <si>
+    <t>yoga sport bra</t>
+  </si>
+  <si>
+    <t>high waisted workout legging</t>
+  </si>
+  <si>
+    <t>seamless legging</t>
+  </si>
+  <si>
+    <t>seamless workout</t>
+  </si>
+  <si>
+    <t>purple sport bra</t>
+  </si>
+  <si>
+    <t>workout sport bra</t>
+  </si>
+  <si>
+    <t>seamless sport bra</t>
+  </si>
+  <si>
+    <t>sport clothe</t>
+  </si>
+  <si>
+    <t>gym legging</t>
+  </si>
+  <si>
+    <t>high waisted legging set</t>
+  </si>
+  <si>
+    <t>clothe bra</t>
   </si>
   <si>
     <t>high yoga</t>
@@ -81,128 +201,134 @@
     <t>seamless set</t>
   </si>
   <si>
-    <t>seamless yoga set</t>
-  </si>
-  <si>
-    <t>green workout legging</t>
-  </si>
-  <si>
-    <t>high waist yoga legging</t>
-  </si>
-  <si>
-    <t>green n</t>
-  </si>
-  <si>
-    <t>yoga bra legging set</t>
-  </si>
-  <si>
-    <t>sport green</t>
-  </si>
-  <si>
-    <t>high waist seamless legging</t>
-  </si>
-  <si>
-    <t>yoga legging green</t>
+    <t>high waisted yoga legging</t>
+  </si>
+  <si>
+    <t>purple clothe</t>
+  </si>
+  <si>
+    <t>workout clothe set</t>
+  </si>
+  <si>
+    <t>seamless legging set</t>
+  </si>
+  <si>
+    <t>legging sport bra set</t>
+  </si>
+  <si>
+    <t>yoga clothe</t>
+  </si>
+  <si>
+    <t>gym clothe</t>
   </si>
   <si>
     <t>seamless workout legging</t>
   </si>
   <si>
-    <t>legging sport bra set</t>
-  </si>
-  <si>
-    <t>waist legging</t>
-  </si>
-  <si>
-    <t>purple workout legging</t>
+    <t>high waisted gym legging</t>
   </si>
   <si>
     <t>seamless yoga legging</t>
   </si>
   <si>
-    <t>high waist sport legging</t>
-  </si>
-  <si>
-    <t>high waist black yoga legging</t>
-  </si>
-  <si>
-    <t>black seamless legging</t>
-  </si>
-  <si>
-    <t>legging bra</t>
-  </si>
-  <si>
-    <t>sport yoga legging</t>
-  </si>
-  <si>
-    <t>high waist legging set</t>
-  </si>
-  <si>
-    <t>sport bra legging</t>
-  </si>
-  <si>
-    <t>yoga legging sport bra set</t>
-  </si>
-  <si>
-    <t>ready 2</t>
-  </si>
-  <si>
-    <t>yoga set 2</t>
-  </si>
-  <si>
-    <t>high legging</t>
-  </si>
-  <si>
-    <t>workout legging sport bra set</t>
-  </si>
-  <si>
-    <t>black workout legging</t>
-  </si>
-  <si>
-    <t>legging yoga workout</t>
-  </si>
-  <si>
-    <t>waist black</t>
-  </si>
-  <si>
-    <t>high waist black legging</t>
-  </si>
-  <si>
-    <t>seamless workout yoga bra</t>
-  </si>
-  <si>
-    <t>seamless workout bra</t>
-  </si>
-  <si>
-    <t>bra legging workout set</t>
-  </si>
-  <si>
-    <t>seamless legging set</t>
-  </si>
-  <si>
-    <t>black workout</t>
-  </si>
-  <si>
-    <t>apparel bra</t>
-  </si>
-  <si>
-    <t>sport 2</t>
-  </si>
-  <si>
-    <t>sport bra outfit</t>
-  </si>
-  <si>
-    <t>black legging yoga waist</t>
-  </si>
-  <si>
-    <t>high yoga legging</t>
+    <t>high waisted seamless legging</t>
+  </si>
+  <si>
+    <t>beginner bras for girls</t>
+  </si>
+  <si>
+    <t>sexy clothes for women for sex</t>
+  </si>
+  <si>
+    <t>women gym clothes set</t>
+  </si>
+  <si>
+    <t>high waisted jeans for women stretchy</t>
+  </si>
+  <si>
+    <t>belly dance pants for girls</t>
+  </si>
+  <si>
+    <t>girls gym sets</t>
+  </si>
+  <si>
+    <t>jeans for women high waisted stretch</t>
+  </si>
+  <si>
+    <t>gym leggings</t>
+  </si>
+  <si>
+    <t>denim leggings high waisted</t>
+  </si>
+  <si>
+    <t>fishnet leggings</t>
+  </si>
+  <si>
+    <t>high waisted lingerie</t>
+  </si>
+  <si>
+    <t>sport apparel</t>
+  </si>
+  <si>
+    <t>bras for women</t>
+  </si>
+  <si>
+    <t>seamless bra set</t>
+  </si>
+  <si>
+    <t>workout clothes for women sets</t>
+  </si>
+  <si>
+    <t>legging bra set</t>
+  </si>
+  <si>
+    <t>gym workout set</t>
+  </si>
+  <si>
+    <t>yoga set purple</t>
+  </si>
+  <si>
+    <t>gym clothes for women sets</t>
+  </si>
+  <si>
+    <t>seamless yoga bra</t>
+  </si>
+  <si>
+    <t>seamless yoga</t>
+  </si>
+  <si>
+    <t>yoga legging set</t>
+  </si>
+  <si>
+    <t>yoga bra set</t>
+  </si>
+  <si>
+    <t>high sport bra</t>
+  </si>
+  <si>
+    <t>high waisted workout</t>
+  </si>
+  <si>
+    <t>gym apparel</t>
+  </si>
+  <si>
+    <t>sport workout</t>
+  </si>
+  <si>
+    <t>yoga gym</t>
+  </si>
+  <si>
+    <t>n set</t>
+  </si>
+  <si>
+    <t>ready set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,15 +337,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -255,35 +389,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -567,282 +685,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A57"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
@@ -861,142 +979,229 @@
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
+      <c r="A70" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
+      <c r="A71" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1"/>
+      <c r="A72" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
+      <c r="A78" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
+      <c r="A79" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
+      <c r="A80" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
+      <c r="A81" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
+      <c r="A82" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
+      <c r="A83" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
+      <c r="A84" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
+      <c r="A85" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
+      <c r="A86" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
+      <c r="A87" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
+      <c r="A88" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
+      <c r="A89" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
+      <c r="A90" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
+      <c r="A91" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
+      <c r="A92" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
+      <c r="A93" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
+      <c r="A94" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
+      <c r="A95" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
+      <c r="A96" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
+      <c r="A97" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
+      <c r="A98" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
+      <c r="A99" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
+      <c r="A100" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A58:A100">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A57">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A70:A101">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\git\kw-rank\keyword\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.121\share\github\readypard\kw-rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BCB611-9894-4BB8-A06F-9BA61E461D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="B08K42K3DM" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>sport bra</t>
   </si>
@@ -310,35 +309,23 @@
   </si>
   <si>
     <t>gym apparel</t>
-  </si>
-  <si>
-    <t>sport workout</t>
-  </si>
-  <si>
-    <t>yoga gym</t>
-  </si>
-  <si>
-    <t>n set</t>
-  </si>
-  <si>
-    <t>ready set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -346,7 +333,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -354,7 +341,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -684,516 +671,508 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="J115" sqref="J115"/>
+      <selection activeCell="N103" sqref="N103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="2"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" spans="1:1">
       <c r="A101" s="2"/>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.121\share\github\readypard\kw-rank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\git\kw-rank\keyword\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E502225-C8B8-414A-964D-C1D5A265C3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B08K42K3DM" sheetId="1" r:id="rId1"/>
+    <sheet name="B08K4353V1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,324 +25,331 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
-  <si>
-    <t>sport bra</t>
-  </si>
-  <si>
-    <t>purple bra</t>
-  </si>
-  <si>
-    <t>seamless bra</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>jeggings set for women</t>
+  </si>
+  <si>
+    <t>basketball sweatsuit</t>
+  </si>
+  <si>
+    <t>work out outfit</t>
+  </si>
+  <si>
+    <t>green muscle leggings</t>
+  </si>
+  <si>
+    <t>sexy stretch denim high waist</t>
+  </si>
+  <si>
+    <t>green belly dance top</t>
+  </si>
+  <si>
+    <t>legging set</t>
+  </si>
+  <si>
+    <t>basketball tights for girls</t>
+  </si>
+  <si>
+    <t>yoga set</t>
+  </si>
+  <si>
+    <t>highwaist leggings</t>
+  </si>
+  <si>
+    <t>yoga ball green</t>
+  </si>
+  <si>
+    <t>girls slim jeans size 10</t>
+  </si>
+  <si>
+    <t>dark green leggings</t>
+  </si>
+  <si>
+    <t>dance booties for women</t>
+  </si>
+  <si>
+    <t>yoga work out set</t>
+  </si>
+  <si>
+    <t>workout outfits</t>
+  </si>
+  <si>
+    <t>dance outfits for women</t>
+  </si>
+  <si>
+    <t>butt lifting jeggings for women</t>
+  </si>
+  <si>
+    <t>90 styles clothing for women</t>
+  </si>
+  <si>
+    <t>purple outfits for women</t>
+  </si>
+  <si>
+    <t>belly dance vest</t>
+  </si>
+  <si>
+    <t>belly dance bra</t>
+  </si>
+  <si>
+    <t>sports bra set</t>
+  </si>
+  <si>
+    <t>sports bra and leggings set for women</t>
+  </si>
+  <si>
+    <t>metallic green leggings</t>
+  </si>
+  <si>
+    <t>zero restriction vest</t>
+  </si>
+  <si>
+    <t>3 pc outfit for women</t>
+  </si>
+  <si>
+    <t>green workout leggings for women</t>
+  </si>
+  <si>
+    <t>black out silhouettes then and now</t>
+  </si>
+  <si>
+    <t>black seamless leggings for women</t>
+  </si>
+  <si>
+    <t>yoga pants cropped</t>
+  </si>
+  <si>
+    <t>yoga jeggings</t>
+  </si>
+  <si>
+    <t>dance equipment</t>
+  </si>
+  <si>
+    <t>skinny wraps</t>
+  </si>
+  <si>
+    <t>fashionable workout clothes for women</t>
+  </si>
+  <si>
+    <t>workout gear for women</t>
+  </si>
+  <si>
+    <t>denim camisole</t>
+  </si>
+  <si>
+    <t>boxing equipment for girls</t>
+  </si>
+  <si>
+    <t>exercise sets for women</t>
+  </si>
+  <si>
+    <t>green jeggings women</t>
+  </si>
+  <si>
+    <t>green denim vest</t>
+  </si>
+  <si>
+    <t>purple leggings</t>
+  </si>
+  <si>
+    <t>metallic outfit</t>
+  </si>
+  <si>
+    <t>2 pc legging set for women</t>
+  </si>
+  <si>
+    <t>workout items for women</t>
+  </si>
+  <si>
+    <t>yoga outfit</t>
+  </si>
+  <si>
+    <t>women workout sets</t>
+  </si>
+  <si>
+    <t>bra and tight set</t>
+  </si>
+  <si>
+    <t>denim outfits for women sexy</t>
+  </si>
+  <si>
+    <t>muscle stretch</t>
+  </si>
+  <si>
+    <t>high waist jean leggings</t>
+  </si>
+  <si>
+    <t>dance skins for women</t>
+  </si>
+  <si>
+    <t>womens workout sets</t>
+  </si>
+  <si>
+    <t>skinny workout pants</t>
+  </si>
+  <si>
+    <t>green metallic leggings</t>
+  </si>
+  <si>
+    <t>yoga outfit seamless 2</t>
+  </si>
+  <si>
+    <t>nineties clothing for women</t>
+  </si>
+  <si>
+    <t>legging sets for women outfits</t>
+  </si>
+  <si>
+    <t>exercise clothing for women</t>
+  </si>
+  <si>
+    <t>nylon leggings for women</t>
+  </si>
+  <si>
+    <t>highwaist leggings for women</t>
+  </si>
+  <si>
+    <t>girls exercise pants</t>
+  </si>
+  <si>
+    <t>outfits for women</t>
+  </si>
+  <si>
+    <t>basketball pants girls</t>
+  </si>
+  <si>
+    <t>exercise outfits for women</t>
+  </si>
+  <si>
+    <t>dance skins</t>
+  </si>
+  <si>
+    <t>jeggings for women high waist</t>
+  </si>
+  <si>
+    <t>metallic pants women</t>
   </si>
   <si>
     <t>seamless workout set</t>
   </si>
   <si>
-    <t>womens gym clothes</t>
-  </si>
-  <si>
-    <t>purple clothing for women</t>
-  </si>
-  <si>
-    <t>big and tall gym clothing</t>
-  </si>
-  <si>
-    <t>leggings set</t>
-  </si>
-  <si>
-    <t>high waisted jeggings for women</t>
-  </si>
-  <si>
-    <t>fishnet sports bra</t>
-  </si>
-  <si>
-    <t>tennis ball return trainer</t>
-  </si>
-  <si>
-    <t>studio sports bra</t>
-  </si>
-  <si>
-    <t>waisted trainers</t>
-  </si>
-  <si>
-    <t>womens joggers high waisted</t>
-  </si>
-  <si>
-    <t>high waisted fishnet tights</t>
-  </si>
-  <si>
-    <t>beginner sports bra for girls</t>
+    <t>skinnies outfit</t>
+  </si>
+  <si>
+    <t>girls sexys butt</t>
+  </si>
+  <si>
+    <t>belly dance pants for girls</t>
+  </si>
+  <si>
+    <t>yoga vests for women</t>
   </si>
   <si>
     <t>90 nylon 10 spandex leggings</t>
   </si>
   <si>
-    <t>sexy high waisted jeans for women</t>
-  </si>
-  <si>
-    <t>tennis return trainer</t>
-  </si>
-  <si>
-    <t>yoga set</t>
-  </si>
-  <si>
-    <t>yoga legging</t>
-  </si>
-  <si>
-    <t>yoga workout</t>
-  </si>
-  <si>
-    <t>yoga bra</t>
-  </si>
-  <si>
-    <t>workout apparel</t>
-  </si>
-  <si>
-    <t>workout bra</t>
-  </si>
-  <si>
-    <t>workout set</t>
-  </si>
-  <si>
-    <t>workout legging</t>
-  </si>
-  <si>
-    <t>legging set</t>
-  </si>
-  <si>
-    <t>workout gym</t>
-  </si>
-  <si>
-    <t>sport bra set</t>
-  </si>
-  <si>
-    <t>workout clothe</t>
-  </si>
-  <si>
-    <t>bra set</t>
-  </si>
-  <si>
-    <t>sport legging</t>
-  </si>
-  <si>
-    <t>yoga workout set</t>
-  </si>
-  <si>
-    <t>sport set</t>
-  </si>
-  <si>
-    <t>gym bra</t>
-  </si>
-  <si>
-    <t>gym set</t>
-  </si>
-  <si>
-    <t>yoga apparel</t>
-  </si>
-  <si>
-    <t>purple legging</t>
-  </si>
-  <si>
-    <t>high waisted legging</t>
-  </si>
-  <si>
-    <t>high waisted</t>
-  </si>
-  <si>
-    <t>sport gym</t>
-  </si>
-  <si>
-    <t>yoga sport</t>
-  </si>
-  <si>
-    <t>clothe set</t>
-  </si>
-  <si>
-    <t>high waisted yoga</t>
-  </si>
-  <si>
-    <t>yoga sport bra</t>
-  </si>
-  <si>
-    <t>high waisted workout legging</t>
-  </si>
-  <si>
-    <t>seamless legging</t>
-  </si>
-  <si>
-    <t>seamless workout</t>
-  </si>
-  <si>
-    <t>purple sport bra</t>
-  </si>
-  <si>
-    <t>workout sport bra</t>
-  </si>
-  <si>
-    <t>seamless sport bra</t>
-  </si>
-  <si>
-    <t>sport clothe</t>
-  </si>
-  <si>
-    <t>gym legging</t>
-  </si>
-  <si>
-    <t>high waisted legging set</t>
-  </si>
-  <si>
-    <t>clothe bra</t>
-  </si>
-  <si>
-    <t>high yoga</t>
-  </si>
-  <si>
-    <t>seamless set</t>
-  </si>
-  <si>
-    <t>high waisted yoga legging</t>
-  </si>
-  <si>
-    <t>purple clothe</t>
-  </si>
-  <si>
-    <t>workout clothe set</t>
-  </si>
-  <si>
-    <t>seamless legging set</t>
-  </si>
-  <si>
-    <t>legging sport bra set</t>
-  </si>
-  <si>
-    <t>yoga clothe</t>
-  </si>
-  <si>
-    <t>gym clothe</t>
-  </si>
-  <si>
-    <t>seamless workout legging</t>
-  </si>
-  <si>
-    <t>high waisted gym legging</t>
-  </si>
-  <si>
-    <t>seamless yoga legging</t>
-  </si>
-  <si>
-    <t>high waisted seamless legging</t>
-  </si>
-  <si>
-    <t>beginner bras for girls</t>
-  </si>
-  <si>
-    <t>sexy clothes for women for sex</t>
-  </si>
-  <si>
-    <t>women gym clothes set</t>
-  </si>
-  <si>
-    <t>high waisted jeans for women stretchy</t>
-  </si>
-  <si>
-    <t>belly dance pants for girls</t>
-  </si>
-  <si>
-    <t>girls gym sets</t>
-  </si>
-  <si>
-    <t>jeans for women high waisted stretch</t>
-  </si>
-  <si>
-    <t>gym leggings</t>
-  </si>
-  <si>
-    <t>denim leggings high waisted</t>
-  </si>
-  <si>
-    <t>fishnet leggings</t>
-  </si>
-  <si>
-    <t>high waisted lingerie</t>
-  </si>
-  <si>
-    <t>sport apparel</t>
-  </si>
-  <si>
-    <t>bras for women</t>
-  </si>
-  <si>
-    <t>seamless bra set</t>
-  </si>
-  <si>
-    <t>workout clothes for women sets</t>
-  </si>
-  <si>
-    <t>legging bra set</t>
-  </si>
-  <si>
-    <t>gym workout set</t>
-  </si>
-  <si>
-    <t>yoga set purple</t>
-  </si>
-  <si>
-    <t>gym clothes for women sets</t>
-  </si>
-  <si>
-    <t>seamless yoga bra</t>
-  </si>
-  <si>
-    <t>seamless yoga</t>
-  </si>
-  <si>
-    <t>yoga legging set</t>
-  </si>
-  <si>
-    <t>yoga bra set</t>
-  </si>
-  <si>
-    <t>high sport bra</t>
-  </si>
-  <si>
-    <t>high waisted workout</t>
-  </si>
-  <si>
-    <t>gym apparel</t>
+    <t>pilates wrap</t>
+  </si>
+  <si>
+    <t>work out set</t>
+  </si>
+  <si>
+    <t>high waist jeggings for women stretch</t>
+  </si>
+  <si>
+    <t>cute booty lounge leggings</t>
+  </si>
+  <si>
+    <t>high waist jeggings for women</t>
+  </si>
+  <si>
+    <t>high waist compression jeggings</t>
+  </si>
+  <si>
+    <t>high waisted dance leggings for women</t>
+  </si>
+  <si>
+    <t>waist pack for women</t>
+  </si>
+  <si>
+    <t>girls dance sports bra</t>
+  </si>
+  <si>
+    <t>exercise outfit for women</t>
+  </si>
+  <si>
+    <t>spandex sweatsuit women</t>
+  </si>
+  <si>
+    <t>gym wrap</t>
+  </si>
+  <si>
+    <t>metallic leggings for women</t>
+  </si>
+  <si>
+    <t>wrap bra</t>
+  </si>
+  <si>
+    <t>metallic spandex fabric</t>
+  </si>
+  <si>
+    <t>butt set</t>
+  </si>
+  <si>
+    <t>womens purple sweatsuit</t>
+  </si>
+  <si>
+    <t>womens dance leggings</t>
+  </si>
+  <si>
+    <t>womens work outfits sets</t>
+  </si>
+  <si>
+    <t>dance tights for girls</t>
+  </si>
+  <si>
+    <t>yoga pants enhance butt</t>
+  </si>
+  <si>
+    <t>small girls sports bra</t>
+  </si>
+  <si>
+    <t>green jeggings</t>
+  </si>
+  <si>
+    <t>womens jeggings high waist</t>
+  </si>
+  <si>
+    <t>sports bras set</t>
+  </si>
+  <si>
+    <t>purple boxing wraps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -376,14 +384,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -671,516 +674,520 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="N103" sqref="N103"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="2" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="2" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="2" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="2" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="2" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="2" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="2" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="2" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="2" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="2" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="2" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="2" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="2" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="2" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="2" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="2" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="2" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="2" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="2"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="2"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="2"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="2"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="2"/>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A70:A101">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A100">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\git\kw-rank\keyword\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B731C6F5-F3E8-4150-A7A5-779D9E2D9A8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E502225-C8B8-414A-964D-C1D5A265C3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B08K44C9Y9" sheetId="1" r:id="rId1"/>
+    <sheet name="B08K4353V1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,159 +25,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
-  <si>
-    <t>yoga workout top</t>
-  </si>
-  <si>
-    <t>t shirt set</t>
-  </si>
-  <si>
-    <t>sport apparel</t>
-  </si>
-  <si>
-    <t>cropped t</t>
-  </si>
-  <si>
-    <t>workout 2 piece</t>
-  </si>
-  <si>
-    <t>2 piece yoga set</t>
-  </si>
-  <si>
-    <t>yoga legging set</t>
-  </si>
-  <si>
-    <t>top t shirt</t>
-  </si>
-  <si>
-    <t>2 piece yoga outfit</t>
-  </si>
-  <si>
-    <t>sport workout</t>
-  </si>
-  <si>
-    <t>apparel shirt</t>
-  </si>
-  <si>
-    <t>cropped workout shirt</t>
-  </si>
-  <si>
-    <t>yoga 2</t>
-  </si>
-  <si>
-    <t>workout top set</t>
-  </si>
-  <si>
-    <t>t set</t>
-  </si>
-  <si>
-    <t>t piece</t>
-  </si>
-  <si>
-    <t>t sport</t>
-  </si>
-  <si>
-    <t>2 piece set outfit</t>
-  </si>
-  <si>
-    <t>2 piece legging set</t>
-  </si>
-  <si>
-    <t>2 piece workout outfit</t>
-  </si>
-  <si>
-    <t>2 t shirt</t>
-  </si>
-  <si>
-    <t>ready set</t>
-  </si>
-  <si>
-    <t>apparel t shirt</t>
-  </si>
-  <si>
-    <t>legging top set</t>
-  </si>
-  <si>
-    <t>workout legging set</t>
-  </si>
-  <si>
-    <t>cropped workout</t>
-  </si>
-  <si>
-    <t>yoga legging cropped</t>
-  </si>
-  <si>
-    <t>yoga set 2</t>
-  </si>
-  <si>
-    <t>ready 2</t>
-  </si>
-  <si>
-    <t>yoga 2 piece</t>
-  </si>
-  <si>
-    <t>t shirt legging</t>
-  </si>
-  <si>
-    <t>apparel t</t>
-  </si>
-  <si>
-    <t>sport 2</t>
-  </si>
-  <si>
-    <t>workout t</t>
-  </si>
-  <si>
-    <t>sport yoga legging</t>
-  </si>
-  <si>
-    <t>yoga outfit 2 piece set</t>
-  </si>
-  <si>
-    <t>yoga legging top set</t>
-  </si>
-  <si>
-    <t>2 top</t>
-  </si>
-  <si>
-    <t>legging yoga workout</t>
-  </si>
-  <si>
-    <t>workout legging top set</t>
-  </si>
-  <si>
-    <t>yoga t</t>
-  </si>
-  <si>
-    <t>yoga top legging</t>
-  </si>
-  <si>
-    <t>t legging</t>
-  </si>
-  <si>
-    <t>women shirts for leggings</t>
-  </si>
-  <si>
-    <t>cropped t shirts for women</t>
-  </si>
-  <si>
-    <t>workout outfits for women 2 piece</t>
-  </si>
-  <si>
-    <t>yoga outfits for women set</t>
-  </si>
-  <si>
-    <t>womens t shirts for leggings</t>
-  </si>
-  <si>
-    <t>top and legging set</t>
-  </si>
-  <si>
-    <t>tops for women set</t>
-  </si>
-  <si>
-    <t>2 piece legging workout set</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>jeggings set for women</t>
+  </si>
+  <si>
+    <t>basketball sweatsuit</t>
+  </si>
+  <si>
+    <t>work out outfit</t>
+  </si>
+  <si>
+    <t>green muscle leggings</t>
+  </si>
+  <si>
+    <t>sexy stretch denim high waist</t>
+  </si>
+  <si>
+    <t>green belly dance top</t>
+  </si>
+  <si>
+    <t>legging set</t>
+  </si>
+  <si>
+    <t>basketball tights for girls</t>
+  </si>
+  <si>
+    <t>yoga set</t>
+  </si>
+  <si>
+    <t>highwaist leggings</t>
+  </si>
+  <si>
+    <t>yoga ball green</t>
+  </si>
+  <si>
+    <t>girls slim jeans size 10</t>
+  </si>
+  <si>
+    <t>dark green leggings</t>
+  </si>
+  <si>
+    <t>dance booties for women</t>
+  </si>
+  <si>
+    <t>yoga work out set</t>
+  </si>
+  <si>
+    <t>workout outfits</t>
+  </si>
+  <si>
+    <t>dance outfits for women</t>
+  </si>
+  <si>
+    <t>butt lifting jeggings for women</t>
+  </si>
+  <si>
+    <t>90 styles clothing for women</t>
+  </si>
+  <si>
+    <t>purple outfits for women</t>
+  </si>
+  <si>
+    <t>belly dance vest</t>
+  </si>
+  <si>
+    <t>belly dance bra</t>
+  </si>
+  <si>
+    <t>sports bra set</t>
+  </si>
+  <si>
+    <t>sports bra and leggings set for women</t>
+  </si>
+  <si>
+    <t>metallic green leggings</t>
+  </si>
+  <si>
+    <t>zero restriction vest</t>
+  </si>
+  <si>
+    <t>3 pc outfit for women</t>
+  </si>
+  <si>
+    <t>green workout leggings for women</t>
+  </si>
+  <si>
+    <t>black out silhouettes then and now</t>
+  </si>
+  <si>
+    <t>black seamless leggings for women</t>
+  </si>
+  <si>
+    <t>yoga pants cropped</t>
+  </si>
+  <si>
+    <t>yoga jeggings</t>
+  </si>
+  <si>
+    <t>dance equipment</t>
+  </si>
+  <si>
+    <t>skinny wraps</t>
+  </si>
+  <si>
+    <t>fashionable workout clothes for women</t>
+  </si>
+  <si>
+    <t>workout gear for women</t>
+  </si>
+  <si>
+    <t>denim camisole</t>
+  </si>
+  <si>
+    <t>boxing equipment for girls</t>
+  </si>
+  <si>
+    <t>exercise sets for women</t>
+  </si>
+  <si>
+    <t>green jeggings women</t>
+  </si>
+  <si>
+    <t>green denim vest</t>
+  </si>
+  <si>
+    <t>purple leggings</t>
+  </si>
+  <si>
+    <t>metallic outfit</t>
+  </si>
+  <si>
+    <t>2 pc legging set for women</t>
+  </si>
+  <si>
+    <t>workout items for women</t>
+  </si>
+  <si>
+    <t>yoga outfit</t>
+  </si>
+  <si>
+    <t>women workout sets</t>
+  </si>
+  <si>
+    <t>bra and tight set</t>
+  </si>
+  <si>
+    <t>denim outfits for women sexy</t>
+  </si>
+  <si>
+    <t>muscle stretch</t>
+  </si>
+  <si>
+    <t>high waist jean leggings</t>
+  </si>
+  <si>
+    <t>dance skins for women</t>
+  </si>
+  <si>
+    <t>womens workout sets</t>
+  </si>
+  <si>
+    <t>skinny workout pants</t>
+  </si>
+  <si>
+    <t>green metallic leggings</t>
+  </si>
+  <si>
+    <t>yoga outfit seamless 2</t>
+  </si>
+  <si>
+    <t>nineties clothing for women</t>
+  </si>
+  <si>
+    <t>legging sets for women outfits</t>
+  </si>
+  <si>
+    <t>exercise clothing for women</t>
+  </si>
+  <si>
+    <t>nylon leggings for women</t>
+  </si>
+  <si>
+    <t>highwaist leggings for women</t>
+  </si>
+  <si>
+    <t>girls exercise pants</t>
+  </si>
+  <si>
+    <t>outfits for women</t>
+  </si>
+  <si>
+    <t>basketball pants girls</t>
+  </si>
+  <si>
+    <t>exercise outfits for women</t>
+  </si>
+  <si>
+    <t>dance skins</t>
+  </si>
+  <si>
+    <t>jeggings for women high waist</t>
+  </si>
+  <si>
+    <t>metallic pants women</t>
+  </si>
+  <si>
+    <t>seamless workout set</t>
+  </si>
+  <si>
+    <t>skinnies outfit</t>
+  </si>
+  <si>
+    <t>girls sexys butt</t>
+  </si>
+  <si>
+    <t>belly dance pants for girls</t>
+  </si>
+  <si>
+    <t>yoga vests for women</t>
+  </si>
+  <si>
+    <t>90 nylon 10 spandex leggings</t>
+  </si>
+  <si>
+    <t>pilates wrap</t>
+  </si>
+  <si>
+    <t>work out set</t>
+  </si>
+  <si>
+    <t>high waist jeggings for women stretch</t>
+  </si>
+  <si>
+    <t>cute booty lounge leggings</t>
+  </si>
+  <si>
+    <t>high waist jeggings for women</t>
+  </si>
+  <si>
+    <t>high waist compression jeggings</t>
+  </si>
+  <si>
+    <t>high waisted dance leggings for women</t>
+  </si>
+  <si>
+    <t>waist pack for women</t>
+  </si>
+  <si>
+    <t>girls dance sports bra</t>
+  </si>
+  <si>
+    <t>exercise outfit for women</t>
+  </si>
+  <si>
+    <t>spandex sweatsuit women</t>
+  </si>
+  <si>
+    <t>gym wrap</t>
+  </si>
+  <si>
+    <t>metallic leggings for women</t>
+  </si>
+  <si>
+    <t>wrap bra</t>
+  </si>
+  <si>
+    <t>metallic spandex fabric</t>
+  </si>
+  <si>
+    <t>butt set</t>
+  </si>
+  <si>
+    <t>womens purple sweatsuit</t>
+  </si>
+  <si>
+    <t>womens dance leggings</t>
+  </si>
+  <si>
+    <t>womens work outfits sets</t>
+  </si>
+  <si>
+    <t>dance tights for girls</t>
+  </si>
+  <si>
+    <t>yoga pants enhance butt</t>
+  </si>
+  <si>
+    <t>small girls sports bra</t>
+  </si>
+  <si>
+    <t>green jeggings</t>
+  </si>
+  <si>
+    <t>womens jeggings high waist</t>
+  </si>
+  <si>
+    <t>sports bras set</t>
+  </si>
+  <si>
+    <t>purple boxing wraps</t>
   </si>
 </sst>
 </file>
@@ -195,8 +342,10 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -214,7 +363,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -222,37 +371,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{28F17666-88F0-4C90-86E2-6F6996A489A0}"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -536,416 +675,517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A96"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A52:A96">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A43">
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:A51">
+  <conditionalFormatting sqref="A1:A100">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\git\kw-rank\keyword\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\READYPARD-VM\readypard\github\yoga-set\kw-rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0F4C1F-7EC0-42B6-AC65-772B00CBE57F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="B08K42K3DM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -330,7 +329,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,7 +379,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{04298993-45F5-49CD-8209-14B74468EE7A}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -665,11 +664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection sqref="A1:A100"/>
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1172,6 +1171,11 @@
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
